--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/炼焦、燃气及石油加工业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/炼焦、燃气及石油加工业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,617 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>247167.62</v>
+        <v>446515.164778897</v>
       </c>
       <c r="C2" t="n">
-        <v>120621.466</v>
+        <v>1053037.84832851</v>
       </c>
       <c r="D2" t="n">
-        <v>342.039</v>
+        <v>6680.89626524185</v>
       </c>
       <c r="E2" t="n">
-        <v>1248344.1</v>
+        <v>5620623.98589287</v>
       </c>
       <c r="F2" t="n">
-        <v>61823.5</v>
+        <v>144703.625468078</v>
       </c>
       <c r="G2" t="n">
-        <v>434935.54</v>
+        <v>1432175.31680114</v>
       </c>
       <c r="H2" t="n">
-        <v>2024022.37</v>
+        <v>4051298.13130957</v>
       </c>
       <c r="I2" t="n">
-        <v>2035873.63</v>
+        <v>5339855.41412031</v>
       </c>
       <c r="J2" t="n">
-        <v>62494043.158</v>
+        <v>241663717.25969</v>
       </c>
       <c r="K2" t="n">
-        <v>5991478.56123485</v>
+        <v>9740359.662427809</v>
       </c>
       <c r="L2" t="n">
-        <v>3800948.66041755</v>
+        <v>7218477.24619249</v>
       </c>
       <c r="M2" t="n">
-        <v>20717374.0803159</v>
+        <v>59822379.9730986</v>
       </c>
       <c r="N2" t="n">
-        <v>83211417.2383159</v>
+        <v>301486097.232789</v>
       </c>
       <c r="O2" t="n">
-        <v>6404799.8</v>
+        <v>18214900.8542896</v>
       </c>
       <c r="P2" t="n">
-        <v>6274442.55649776</v>
+        <v>32157664.5662524</v>
       </c>
       <c r="Q2" t="n">
-        <v>4650504.30216572</v>
+        <v>10705878.4982259</v>
       </c>
       <c r="R2" t="n">
-        <v>2064048</v>
+        <v>5483142.86809278</v>
       </c>
       <c r="S2" t="n">
-        <v>115304.56</v>
+        <v>139950.862917201</v>
       </c>
       <c r="T2" t="n">
-        <v>1635607.784</v>
+        <v>6652821.3125777</v>
       </c>
       <c r="U2" t="n">
-        <v>44976991.789</v>
+        <v>187746026.857545</v>
       </c>
       <c r="V2" t="n">
-        <v>293546.59</v>
+        <v>1157540.81806573</v>
       </c>
       <c r="W2" t="n">
-        <v>587042.1</v>
+        <v>1759381.56818378</v>
       </c>
       <c r="X2" t="n">
-        <v>243572.27</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
+        <v>1017394.56155934</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1397667.17349468</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196089.477847872</v>
+        <v>611362.133574066</v>
       </c>
       <c r="C3" t="n">
-        <v>714243.139587742</v>
+        <v>1733547.58838323</v>
       </c>
       <c r="D3" t="n">
-        <v>46879.1464688371</v>
+        <v>19198.9769909729</v>
       </c>
       <c r="E3" t="n">
-        <v>1113519.13107213</v>
+        <v>10088573.5689529</v>
       </c>
       <c r="F3" t="n">
-        <v>22243.3764459087</v>
+        <v>570451.119949289</v>
       </c>
       <c r="G3" t="n">
-        <v>679107.0971680559</v>
+        <v>2492540.21304664</v>
       </c>
       <c r="H3" t="n">
-        <v>2215739.44079597</v>
+        <v>5392879.25591133</v>
       </c>
       <c r="I3" t="n">
-        <v>1760947.66137755</v>
+        <v>5492826.61263738</v>
       </c>
       <c r="J3" t="n">
-        <v>53278847.8737266</v>
+        <v>350178850.995999</v>
       </c>
       <c r="K3" t="n">
-        <v>3422127.76161618</v>
+        <v>16776248.3854481</v>
       </c>
       <c r="L3" t="n">
-        <v>2295399.09871514</v>
+        <v>10372692.199213</v>
       </c>
       <c r="M3" t="n">
-        <v>11205104.3164074</v>
+        <v>81181341.3350253</v>
       </c>
       <c r="N3" t="n">
-        <v>64483952.190134</v>
+        <v>431360192.331024</v>
       </c>
       <c r="O3" t="n">
-        <v>3156408.8411452</v>
+        <v>32443995.5922624</v>
       </c>
       <c r="P3" t="n">
-        <v>3711261.80286233</v>
+        <v>41520976.594738</v>
       </c>
       <c r="Q3" t="n">
-        <v>1776315.65321375</v>
+        <v>12511424.1556261</v>
       </c>
       <c r="R3" t="n">
-        <v>1604966.76066812</v>
+        <v>7201425.64206661</v>
       </c>
       <c r="S3" t="n">
-        <v>89675.1024163236</v>
+        <v>330135.125349252</v>
       </c>
       <c r="T3" t="n">
-        <v>2963537.60572965</v>
+        <v>8183955.74006773</v>
       </c>
       <c r="U3" t="n">
-        <v>37394821.3022003</v>
+        <v>263731669.002788</v>
       </c>
       <c r="V3" t="n">
-        <v>611560.824939939</v>
+        <v>379469.784873111</v>
       </c>
       <c r="W3" t="n">
-        <v>558036.959779216</v>
+        <v>6185790.74760193</v>
       </c>
       <c r="X3" t="n">
-        <v>151072.006083809</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
+        <v>2900895.11449252</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2420134.77705153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>299235.946669483</v>
+        <v>1328785.82093764</v>
       </c>
       <c r="C4" t="n">
-        <v>1114329.66980565</v>
+        <v>4276759.61812756</v>
       </c>
       <c r="D4" t="n">
-        <v>76115.52593477321</v>
+        <v>26923.1861294423</v>
       </c>
       <c r="E4" t="n">
-        <v>1684830.59389578</v>
+        <v>17209280.3401854</v>
       </c>
       <c r="F4" t="n">
-        <v>38657.9657993128</v>
+        <v>1146077.4328852</v>
       </c>
       <c r="G4" t="n">
-        <v>588721.394856063</v>
+        <v>6810335.02796562</v>
       </c>
       <c r="H4" t="n">
-        <v>2950197.57808093</v>
+        <v>11673817.4062456</v>
       </c>
       <c r="I4" t="n">
-        <v>2425469.20489811</v>
+        <v>10435473.4485719</v>
       </c>
       <c r="J4" t="n">
-        <v>107614231.770986</v>
+        <v>349321274.066058</v>
       </c>
       <c r="K4" t="n">
-        <v>5278379.07514147</v>
+        <v>15034559.0530428</v>
       </c>
       <c r="L4" t="n">
-        <v>5791297.36410721</v>
+        <v>9676304.61966127</v>
       </c>
       <c r="M4" t="n">
-        <v>26030754.9985022</v>
+        <v>93121120.785916</v>
       </c>
       <c r="N4" t="n">
-        <v>133644986.769488</v>
+        <v>442442394.851974</v>
       </c>
       <c r="O4" t="n">
-        <v>5834530.16594402</v>
+        <v>50521553.7987149</v>
       </c>
       <c r="P4" t="n">
-        <v>8837160.698391899</v>
+        <v>47545739.4984962</v>
       </c>
       <c r="Q4" t="n">
-        <v>6123917.86086165</v>
+        <v>20864517.6147158</v>
       </c>
       <c r="R4" t="n">
-        <v>3111583.5829576</v>
+        <v>15651308.9995224</v>
       </c>
       <c r="S4" t="n">
-        <v>132475.167794216</v>
+        <v>866317.715241035</v>
       </c>
       <c r="T4" t="n">
-        <v>5104752.70400724</v>
+        <v>13308211.8135774</v>
       </c>
       <c r="U4" t="n">
-        <v>82336655.475161</v>
+        <v>192419638.169517</v>
       </c>
       <c r="V4" t="n">
-        <v>898155.009280561</v>
+        <v>672600.555264307</v>
       </c>
       <c r="W4" t="n">
-        <v>660011.220839545</v>
+        <v>14084587.1023383</v>
       </c>
       <c r="X4" t="n">
-        <v>358510.565061329</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
+        <v>3132702.2025392</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5756901.42829497</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>437846.843136884</v>
+        <v>4513965.72770105</v>
       </c>
       <c r="C5" t="n">
-        <v>1061279.83515692</v>
+        <v>54156992.253678</v>
       </c>
       <c r="D5" t="n">
-        <v>6249.63031795914</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3997051.47440456</v>
-      </c>
+        <v>51363267.4908969</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>124342.025104913</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1201634.04798983</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3671193.99256229</v>
-      </c>
+        <v>467702.744517774</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>5228123.07696138</v>
+        <v>21160964.6861759</v>
       </c>
       <c r="J5" t="n">
-        <v>182086948.111561</v>
+        <v>1425998071.24652</v>
       </c>
       <c r="K5" t="n">
-        <v>11886364.3544207</v>
+        <v>124358083.708849</v>
       </c>
       <c r="L5" t="n">
-        <v>7920344.94741599</v>
+        <v>53572405.561581</v>
       </c>
       <c r="M5" t="n">
-        <v>39741589.4981866</v>
+        <v>440527375.174105</v>
       </c>
       <c r="N5" t="n">
-        <v>221828537.609747</v>
+        <v>1866525446.42063</v>
       </c>
       <c r="O5" t="n">
-        <v>13239342.2909239</v>
+        <v>704290979.116447</v>
       </c>
       <c r="P5" t="n">
-        <v>10729269.3739854</v>
+        <v>136687706.523281</v>
       </c>
       <c r="Q5" t="n">
-        <v>9205610.82236463</v>
+        <v>125909179.380394</v>
       </c>
       <c r="R5" t="n">
-        <v>5147428.82155932</v>
+        <v>62594518.1991749</v>
       </c>
       <c r="S5" t="n">
-        <v>235297.849908944</v>
-      </c>
-      <c r="T5" t="n">
-        <v>6300694.12824033</v>
-      </c>
+        <v>10821029.9484658</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>136375665.586056</v>
+        <v>257720478.430518</v>
       </c>
       <c r="V5" t="n">
-        <v>1139935.49888647</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1770994.40087372</v>
-      </c>
+        <v>23313490.3155818</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>882891.388519506</v>
+        <v>10354655.1107651</v>
       </c>
       <c r="Y5" t="n">
-        <v>1266977.2209581</v>
+        <v>34935669.6387339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446515.164778897</v>
+        <v>5701394.65589216</v>
       </c>
       <c r="C6" t="n">
-        <v>1053037.84832851</v>
+        <v>63531857.3644106</v>
       </c>
       <c r="D6" t="n">
-        <v>6680.89626524185</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5620623.98589287</v>
-      </c>
+        <v>64032236.2675288</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>144703.625468078</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1432175.31680114</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4051298.13130957</v>
-      </c>
+        <v>545683.823970411</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>5339855.41412031</v>
+        <v>21247906.5091094</v>
       </c>
       <c r="J6" t="n">
-        <v>241663717.25969</v>
+        <v>1451797823.03322</v>
       </c>
       <c r="K6" t="n">
-        <v>9740359.662427809</v>
+        <v>126857793.765305</v>
       </c>
       <c r="L6" t="n">
-        <v>7218477.24619249</v>
+        <v>69925797.3515223</v>
       </c>
       <c r="M6" t="n">
-        <v>59822379.9730986</v>
+        <v>470879770.531309</v>
       </c>
       <c r="N6" t="n">
-        <v>301486097.232789</v>
+        <v>1922677593.56453</v>
       </c>
       <c r="O6" t="n">
-        <v>18214900.8542896</v>
+        <v>669753702.700884</v>
       </c>
       <c r="P6" t="n">
-        <v>32157664.5662524</v>
+        <v>107900522.052393</v>
       </c>
       <c r="Q6" t="n">
-        <v>10705878.4982259</v>
+        <v>166195657.362088</v>
       </c>
       <c r="R6" t="n">
-        <v>5483142.86809278</v>
+        <v>65179467.371813</v>
       </c>
       <c r="S6" t="n">
-        <v>139950.862917201</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6652821.3125777</v>
-      </c>
+        <v>12017918.4002023</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>187746026.857545</v>
+        <v>264711077.092805</v>
       </c>
       <c r="V6" t="n">
-        <v>1157540.81806573</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1759381.56818378</v>
-      </c>
+        <v>23154236.9321056</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>1017394.56155934</v>
+        <v>11230820.1895881</v>
       </c>
       <c r="Y6" t="n">
-        <v>1397667.17349468</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>611362.133574066</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1733547.58838323</v>
-      </c>
-      <c r="D7" t="n">
-        <v>19198.9769909729</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10088573.5689529</v>
-      </c>
-      <c r="F7" t="n">
-        <v>570451.119949289</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2492540.21304664</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5392879.25591133</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5492826.61263738</v>
-      </c>
-      <c r="J7" t="n">
-        <v>350178850.995999</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16776248.3854481</v>
-      </c>
-      <c r="L7" t="n">
-        <v>10372692.199213</v>
-      </c>
-      <c r="M7" t="n">
-        <v>81181341.3350253</v>
-      </c>
-      <c r="N7" t="n">
-        <v>431360192.331024</v>
-      </c>
-      <c r="O7" t="n">
-        <v>32443995.5922624</v>
-      </c>
-      <c r="P7" t="n">
-        <v>41520976.594738</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>12511424.1556261</v>
-      </c>
-      <c r="R7" t="n">
-        <v>7201425.64206661</v>
-      </c>
-      <c r="S7" t="n">
-        <v>330135.125349252</v>
-      </c>
-      <c r="T7" t="n">
-        <v>8183955.74006773</v>
-      </c>
-      <c r="U7" t="n">
-        <v>263731669.002788</v>
-      </c>
-      <c r="V7" t="n">
-        <v>379469.784873111</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6185790.74760193</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2900895.11449252</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>2420134.77705153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1328785.82093764</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4276759.61812756</v>
-      </c>
-      <c r="D8" t="n">
-        <v>26923.1861294423</v>
-      </c>
-      <c r="E8" t="n">
-        <v>17209280.3401854</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1146077.4328852</v>
-      </c>
-      <c r="G8" t="n">
-        <v>6810335.02796562</v>
-      </c>
-      <c r="H8" t="n">
-        <v>11673817.4062456</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10435473.4485719</v>
-      </c>
-      <c r="J8" t="n">
-        <v>349321274.066058</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15034559.0530428</v>
-      </c>
-      <c r="L8" t="n">
-        <v>9676304.61966127</v>
-      </c>
-      <c r="M8" t="n">
-        <v>93121120.785916</v>
-      </c>
-      <c r="N8" t="n">
-        <v>442442394.851974</v>
-      </c>
-      <c r="O8" t="n">
-        <v>50521553.7987149</v>
-      </c>
-      <c r="P8" t="n">
-        <v>47545739.4984962</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>20864517.6147158</v>
-      </c>
-      <c r="R8" t="n">
-        <v>15651308.9995224</v>
-      </c>
-      <c r="S8" t="n">
-        <v>866317.715241035</v>
-      </c>
-      <c r="T8" t="n">
-        <v>13308211.8135774</v>
-      </c>
-      <c r="U8" t="n">
-        <v>192419638.169517</v>
-      </c>
-      <c r="V8" t="n">
-        <v>672600.555264307</v>
-      </c>
-      <c r="W8" t="n">
-        <v>14084587.1023383</v>
-      </c>
-      <c r="X8" t="n">
-        <v>3132702.2025392</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>5756901.42829497</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>4513965.72770105</v>
-      </c>
-      <c r="C9" t="n">
-        <v>54156992.253678</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51363267.4908969</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>467702.744517774</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>21160964.6861759</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1425998071.24652</v>
-      </c>
-      <c r="K9" t="n">
-        <v>124358083.708849</v>
-      </c>
-      <c r="L9" t="n">
-        <v>53572405.561581</v>
-      </c>
-      <c r="M9" t="n">
-        <v>440527375.174105</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1866525446.42063</v>
-      </c>
-      <c r="O9" t="n">
-        <v>704290979.116447</v>
-      </c>
-      <c r="P9" t="n">
-        <v>136687706.523281</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>125909179.380394</v>
-      </c>
-      <c r="R9" t="n">
-        <v>62594518.1991749</v>
-      </c>
-      <c r="S9" t="n">
-        <v>10821029.9484658</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>257720478.430518</v>
-      </c>
-      <c r="V9" t="n">
-        <v>23313490.3155818</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>10354655.1107651</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>34935669.6387339</v>
+        <v>36681777.9724301</v>
       </c>
     </row>
   </sheetData>
